--- a/财务/账务记录.xlsx
+++ b/财务/账务记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -137,8 +137,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,13 +207,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -303,7 +303,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -338,7 +337,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,14 +512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
@@ -538,42 +536,42 @@
     <col min="22" max="23" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="3"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="2"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>19</v>
@@ -587,37 +585,37 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -630,7 +628,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -656,14 +654,14 @@
       <c r="I3" s="1">
         <v>13170</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f>SUM(D3:I3)</f>
         <v>1399662.8299999998</v>
       </c>
       <c r="K3" s="1">
         <v>40000</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>29500</v>
       </c>
       <c r="M3" s="1">
@@ -681,7 +679,7 @@
       <c r="Q3" s="1">
         <v>88270</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <f>SUM(M3:Q3)</f>
         <v>196933.34999999998</v>
       </c>
@@ -704,7 +702,7 @@
         <v>51435.78</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -714,11 +712,11 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="1">
         <v>40000</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>53881</v>
       </c>
       <c r="M4" s="1"/>
@@ -726,14 +724,14 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="3"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -757,14 +755,14 @@
         <v>41929.22</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f>SUM(D5:I5)</f>
         <v>4536567.55</v>
       </c>
       <c r="K5" s="1">
         <v>40000</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>3150</v>
       </c>
       <c r="M5" s="1"/>
@@ -780,7 +778,7 @@
       <c r="Q5" s="1">
         <v>4001.76</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <f>SUM(M5:Q5)</f>
         <v>91151.459999999992</v>
       </c>
@@ -803,7 +801,7 @@
         <v>89131.49</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -813,11 +811,11 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="7">
+      <c r="J6" s="4"/>
+      <c r="K6" s="6">
         <v>200000</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>113700</v>
       </c>
       <c r="M6" s="1"/>
@@ -825,14 +823,14 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="4"/>
+      <c r="R6" s="3"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -856,14 +854,14 @@
         <v>1468.53</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f>SUM(D7:I7)</f>
         <v>1791318.28</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>200000</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>33000</v>
       </c>
       <c r="M7" s="1"/>
@@ -879,7 +877,7 @@
       <c r="Q7" s="1">
         <v>14185.33</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <f>SUM(M7:Q7)</f>
         <v>86902.86</v>
       </c>
@@ -902,7 +900,7 @@
         <v>56131.199999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -912,11 +910,11 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="7">
+      <c r="J8" s="4"/>
+      <c r="K8" s="6">
         <v>200000</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>4000</v>
       </c>
       <c r="M8" s="1"/>
@@ -924,14 +922,14 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="3"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,14 +951,14 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f>SUM(D9:I9)</f>
         <v>2799761.83</v>
       </c>
       <c r="K9" s="1">
         <v>110000</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>5000</v>
       </c>
       <c r="M9" s="1">
@@ -978,7 +976,7 @@
       <c r="Q9" s="1">
         <v>29735.33</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <f>SUM(M9:Q9)</f>
         <v>144501.19</v>
       </c>
@@ -1001,7 +999,7 @@
         <v>110968.84</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1011,11 +1009,11 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="1">
         <v>50000</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>2000</v>
       </c>
       <c r="M10" s="1"/>
@@ -1023,14 +1021,14 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="4"/>
+      <c r="R10" s="3"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1054,14 +1052,14 @@
         <v>7570.31</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <f>SUM(D11:I11)</f>
         <v>2492062.5399999996</v>
       </c>
       <c r="K11" s="1">
         <v>50000</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>1000</v>
       </c>
       <c r="M11" s="1"/>
@@ -1077,7 +1075,7 @@
       <c r="Q11" s="1">
         <v>29344.639999999999</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <f>SUM(M11:Q11)</f>
         <v>50709.630000000005</v>
       </c>
@@ -1100,7 +1098,7 @@
         <v>24211.78</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1110,11 +1108,11 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="5"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="1">
         <v>130000</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>15000</v>
       </c>
       <c r="M12" s="1"/>
@@ -1122,14 +1120,14 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="3"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1153,7 +1151,7 @@
       <c r="I13" s="1">
         <v>50000</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f>SUM(D13:I13)</f>
         <v>2629065.7599999998</v>
       </c>
@@ -1174,7 +1172,7 @@
       <c r="Q13" s="1">
         <v>29755.33</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <f>SUM(M13:Q13)</f>
         <v>61808.71</v>
       </c>
@@ -1197,7 +1195,7 @@
         <v>37125.879999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1207,7 +1205,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="1">
         <v>30000</v>
       </c>
@@ -1217,14 +1215,14 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="3"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,7 +1244,7 @@
         <v>6023.93</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <f>SUM(D15:I15)</f>
         <v>507766.56</v>
       </c>
@@ -1267,7 +1265,7 @@
       <c r="Q15" s="1">
         <v>29806.34</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <f>SUM(N15:Q15)</f>
         <v>74071.94</v>
       </c>
@@ -1290,7 +1288,7 @@
         <v>47031.21</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1300,7 +1298,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="1">
         <v>6000</v>
       </c>
@@ -1310,14 +1308,14 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="3"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1343,7 +1341,7 @@
       <c r="I17" s="1">
         <v>479972.05</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <f>SUM(D17:I17)</f>
         <v>1625149.78</v>
       </c>
@@ -1364,7 +1362,7 @@
       <c r="Q17" s="1">
         <v>180046.18</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <f>SUM(M17:Q17)</f>
         <v>340659.9</v>
       </c>
@@ -1387,7 +1385,7 @@
         <v>165276.07</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1397,7 +1395,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="5"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="1">
         <v>8000</v>
       </c>
@@ -1407,14 +1405,14 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="4"/>
+      <c r="R18" s="3"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1440,7 +1438,7 @@
         <v>4179.3500000000004</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <f>SUM(D19:I19)</f>
         <v>5175033.5</v>
       </c>
@@ -1461,7 +1459,7 @@
       <c r="Q19" s="1">
         <v>307921.33</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="3">
         <f>SUM(M19:Q19)</f>
         <v>434426.12</v>
       </c>
@@ -1484,7 +1482,7 @@
         <v>136186.39000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1494,7 +1492,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="1">
         <v>50000</v>
       </c>
@@ -1504,14 +1502,14 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="4"/>
+      <c r="R20" s="3"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1525,7 +1523,7 @@
       <c r="K21" s="1">
         <v>169000</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1538,7 +1536,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1552,7 +1550,7 @@
       <c r="K22" s="1">
         <v>267800</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1565,7 +1563,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1579,7 +1577,7 @@
       <c r="K23" s="1">
         <v>3000</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1592,7 +1590,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1603,10 +1601,10 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <v>50000</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -1619,7 +1617,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1630,10 +1628,10 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <v>22659</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1646,7 +1644,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1657,10 +1655,10 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <v>158000</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -1673,7 +1671,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1684,10 +1682,10 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <v>50000</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -1700,7 +1698,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1711,10 +1709,10 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <v>22659</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1727,7 +1725,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1738,10 +1736,10 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <v>158000</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -1754,17 +1752,17 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="L32" s="6"/>
-    </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L33" s="6"/>
+    <row r="30" spans="1:23">
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="12:12">
+      <c r="L33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1786,12 +1784,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1799,12 +1797,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/财务/账务记录.xlsx
+++ b/财务/账务记录.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="8月" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>进油记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,14 +136,22 @@
   </si>
   <si>
     <t>支出合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +164,22 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -198,8 +227,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -215,8 +248,12 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -512,31 +549,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="12" width="9" customWidth="1"/>
-    <col min="13" max="14" width="9.5" customWidth="1"/>
-    <col min="15" max="15" width="12.25" customWidth="1"/>
-    <col min="16" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="11.625" customWidth="1"/>
-    <col min="20" max="21" width="10.5" customWidth="1"/>
-    <col min="22" max="23" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="14" width="9" customWidth="1"/>
+    <col min="15" max="16" width="9.5" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" customWidth="1"/>
+    <col min="18" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1"/>
+    <col min="23" max="24" width="10.5" customWidth="1"/>
+    <col min="25" max="26" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -544,91 +584,103 @@
         <v>0</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="W1" s="7"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -636,73 +688,76 @@
         <v>803072.5</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
         <v>1134271.17</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>90000</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>106679</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>880</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>54662.66</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>13170</v>
       </c>
-      <c r="J3" s="4">
-        <f>SUM(D3:I3)</f>
+      <c r="K3" s="1"/>
+      <c r="L3" s="4">
+        <f>SUM(E3:J3)</f>
         <v>1399662.8299999998</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M3" s="1">
         <v>40000</v>
       </c>
-      <c r="L3" s="6">
+      <c r="N3" s="6">
         <v>29500</v>
-      </c>
-      <c r="M3" s="1">
-        <v>32177</v>
-      </c>
-      <c r="N3" s="1">
-        <v>14482.9</v>
       </c>
       <c r="O3" s="1">
         <v>32177</v>
       </c>
       <c r="P3" s="1">
+        <v>14482.9</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>32177</v>
+      </c>
+      <c r="R3" s="1">
         <v>29826.45</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="S3" s="1">
         <v>88270</v>
       </c>
-      <c r="R3" s="3">
-        <f>SUM(M3:Q3)</f>
+      <c r="T3" s="1"/>
+      <c r="U3" s="3">
+        <f>SUM(O3:S3)</f>
         <v>196933.34999999998</v>
       </c>
-      <c r="S3" s="1">
-        <f>J3-SUM(B3:C3)</f>
+      <c r="V3" s="1">
+        <f>L3-SUM(B3:D3)</f>
         <v>596590.32999999984</v>
       </c>
-      <c r="T3" s="1">
-        <f>J3-R3-SUM(B3:C3)</f>
+      <c r="W3" s="1">
+        <f>L3-U3-SUM(B3:D3)</f>
         <v>399656.98</v>
       </c>
-      <c r="U3" s="1">
-        <f>F3+G3</f>
+      <c r="X3" s="1">
+        <f>G3+H3</f>
         <v>107559</v>
       </c>
-      <c r="V3" s="1">
+      <c r="Y3" s="1">
         <v>108422.44</v>
       </c>
-      <c r="W3" s="1">
+      <c r="Z3" s="1">
         <v>51435.78</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:26">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -712,26 +767,29 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="1">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="1">
         <v>40000</v>
       </c>
-      <c r="L4" s="6">
+      <c r="N4" s="6">
         <v>53881</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="3"/>
+      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="U4" s="3"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -739,69 +797,72 @@
         <v>3838802.4</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>4034293.33</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>146967</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>254695</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>58683</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>41929.22</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="4">
-        <f>SUM(D5:I5)</f>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="4">
+        <f>SUM(E5:J5)</f>
         <v>4536567.55</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>40000</v>
       </c>
-      <c r="L5" s="6">
+      <c r="N5" s="6">
         <v>3150</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1">
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
         <v>10115.200000000001</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="1">
         <v>76570</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <v>464.5</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>4001.76</v>
       </c>
-      <c r="R5" s="3">
-        <f>SUM(M5:Q5)</f>
+      <c r="T5" s="1"/>
+      <c r="U5" s="3">
+        <f>SUM(O5:S5)</f>
         <v>91151.459999999992</v>
       </c>
-      <c r="S5" s="1">
-        <f>J5-SUM(B5:C5)</f>
+      <c r="V5" s="1">
+        <f>L5-SUM(B5:D5)</f>
         <v>697765.14999999991</v>
       </c>
-      <c r="T5" s="1">
-        <f>J5-R5-SUM(B5:C5)</f>
+      <c r="W5" s="1">
+        <f>L5-U5-SUM(B5:D5)</f>
         <v>606613.68999999994</v>
       </c>
-      <c r="U5" s="1">
-        <f>F5+G5</f>
+      <c r="X5" s="1">
+        <f>G5+H5</f>
         <v>313378</v>
       </c>
-      <c r="V5" s="1">
+      <c r="Y5" s="1">
         <v>320435.37</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Z5" s="1">
         <v>89131.49</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:26">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -811,26 +872,29 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="6">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="6">
         <v>200000</v>
       </c>
-      <c r="L6" s="6">
+      <c r="N6" s="6">
         <v>113700</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="3"/>
+      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="U6" s="3"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -838,69 +902,72 @@
         <v>1573329</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>1512672.06</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>139045</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>128708.69</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>9424</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>1468.53</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="4">
-        <f>SUM(D7:I7)</f>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="4">
+        <f>SUM(E7:J7)</f>
         <v>1791318.28</v>
       </c>
-      <c r="K7" s="6">
+      <c r="M7" s="6">
         <v>200000</v>
       </c>
-      <c r="L7" s="6">
+      <c r="N7" s="6">
         <v>33000</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1">
         <v>41373</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="1">
         <v>11008.44</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>20336.09</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="S7" s="1">
         <v>14185.33</v>
       </c>
-      <c r="R7" s="3">
-        <f>SUM(M7:Q7)</f>
+      <c r="T7" s="1"/>
+      <c r="U7" s="3">
+        <f>SUM(O7:S7)</f>
         <v>86902.86</v>
       </c>
-      <c r="S7" s="1">
-        <f>J7-SUM(B7:C7)</f>
+      <c r="V7" s="1">
+        <f>L7-SUM(B7:D7)</f>
         <v>217989.28000000003</v>
       </c>
-      <c r="T7" s="1">
-        <f>J7-R7-SUM(B7:C7)</f>
+      <c r="W7" s="1">
+        <f>L7-U7-SUM(B7:D7)</f>
         <v>131086.41999999993</v>
       </c>
-      <c r="U7" s="1">
-        <f>F7+G7</f>
+      <c r="X7" s="1">
+        <f>G7+H7</f>
         <v>138132.69</v>
       </c>
-      <c r="V7" s="1">
+      <c r="Y7" s="1">
         <v>142254.93</v>
       </c>
-      <c r="W7" s="1">
+      <c r="Z7" s="1">
         <v>56131.199999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:26">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -910,26 +977,29 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="6">
         <v>200000</v>
       </c>
-      <c r="L8" s="6">
+      <c r="N8" s="6">
         <v>4000</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="3"/>
+      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="U8" s="3"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -937,69 +1007,72 @@
         <v>1925309.6</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>2223827.4700000002</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>481480</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>90007.360000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>4447</v>
       </c>
-      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="4">
-        <f>SUM(D9:I9)</f>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="4">
+        <f>SUM(E9:J9)</f>
         <v>2799761.83</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>110000</v>
       </c>
-      <c r="L9" s="6">
+      <c r="N9" s="6">
         <v>5000</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
         <v>11071.79</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>97925</v>
       </c>
-      <c r="O9" s="1">
+      <c r="Q9" s="1">
         <v>4829.2700000000004</v>
       </c>
-      <c r="P9" s="1">
+      <c r="R9" s="1">
         <v>939.8</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="S9" s="1">
         <v>29735.33</v>
       </c>
-      <c r="R9" s="3">
-        <f>SUM(M9:Q9)</f>
+      <c r="T9" s="1"/>
+      <c r="U9" s="3">
+        <f>SUM(O9:S9)</f>
         <v>144501.19</v>
       </c>
-      <c r="S9" s="1">
-        <f>J9-SUM(B9:C9)</f>
+      <c r="V9" s="1">
+        <f>L9-SUM(B9:D9)</f>
         <v>874452.23</v>
       </c>
-      <c r="T9" s="1">
-        <f>J9-R9-SUM(B9:C9)</f>
+      <c r="W9" s="1">
+        <f>L9-U9-SUM(B9:D9)</f>
         <v>729951.04</v>
       </c>
-      <c r="U9" s="1">
-        <f>F9+G9</f>
+      <c r="X9" s="1">
+        <f>G9+H9</f>
         <v>94454.36</v>
       </c>
-      <c r="V9" s="1">
+      <c r="Y9" s="1">
         <v>94697.36</v>
       </c>
-      <c r="W9" s="1">
+      <c r="Z9" s="1">
         <v>110968.84</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:26">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1009,26 +1082,29 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="1">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="1">
         <v>50000</v>
       </c>
-      <c r="L10" s="6">
+      <c r="N10" s="6">
         <v>2000</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="3"/>
+      <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
+      <c r="U10" s="3"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1036,69 +1112,72 @@
         <v>2455070</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
         <v>2313913.63</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>88570.3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>74658.3</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>7350</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>7570.31</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="4">
-        <f>SUM(D11:I11)</f>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="4">
+        <f>SUM(E11:J11)</f>
         <v>2492062.5399999996</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>50000</v>
       </c>
-      <c r="L11" s="6">
+      <c r="N11" s="6">
         <v>1000</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1">
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
         <v>17070.900000000001</v>
       </c>
-      <c r="O11" s="1">
+      <c r="Q11" s="1">
         <v>4124.3</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R11" s="1">
         <v>169.79</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="S11" s="1">
         <v>29344.639999999999</v>
       </c>
-      <c r="R11" s="3">
-        <f>SUM(M11:Q11)</f>
+      <c r="T11" s="1"/>
+      <c r="U11" s="3">
+        <f>SUM(O11:S11)</f>
         <v>50709.630000000005</v>
       </c>
-      <c r="S11" s="1">
-        <f>J11-SUM(B11:C11)</f>
+      <c r="V11" s="1">
+        <f>L11-SUM(B11:D11)</f>
         <v>36992.539999999572</v>
       </c>
-      <c r="T11" s="1">
-        <f>J11-R11-SUM(B11:C11)</f>
+      <c r="W11" s="1">
+        <f>L11-U11-SUM(B11:D11)</f>
         <v>-13717.090000000317</v>
       </c>
-      <c r="U11" s="1">
-        <f>F11+G11</f>
+      <c r="X11" s="1">
+        <f>G11+H11</f>
         <v>82008.3</v>
       </c>
-      <c r="V11" s="1">
+      <c r="Y11" s="1">
         <v>82384.3</v>
       </c>
-      <c r="W11" s="1">
+      <c r="Z11" s="1">
         <v>24211.78</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:26">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1108,26 +1187,29 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="1">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="1">
         <v>130000</v>
       </c>
-      <c r="L12" s="6">
+      <c r="N12" s="6">
         <v>15000</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="3"/>
+      <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="U12" s="3"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1135,67 +1217,70 @@
         <v>2409905</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
         <v>2441924.38</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
         <v>117993.8</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>17988</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>1159.58</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>50000</v>
       </c>
-      <c r="J13" s="4">
-        <f>SUM(D13:I13)</f>
+      <c r="K13" s="1"/>
+      <c r="L13" s="4">
+        <f>SUM(E13:J13)</f>
         <v>2629065.7599999998</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>50000</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
         <v>26546.5</v>
       </c>
-      <c r="O13" s="1">
+      <c r="Q13" s="1">
         <v>5210.37</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="1">
         <v>296.51</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="S13" s="1">
         <v>29755.33</v>
       </c>
-      <c r="R13" s="3">
-        <f>SUM(M13:Q13)</f>
+      <c r="T13" s="1"/>
+      <c r="U13" s="3">
+        <f>SUM(O13:S13)</f>
         <v>61808.71</v>
       </c>
-      <c r="S13" s="1">
-        <f>J13-SUM(B13:C13)</f>
+      <c r="V13" s="1">
+        <f>L13-SUM(B13:D13)</f>
         <v>219160.75999999978</v>
       </c>
-      <c r="T13" s="1">
-        <f>J13-R13-SUM(B13:C13)</f>
+      <c r="W13" s="1">
+        <f>L13-U13-SUM(B13:D13)</f>
         <v>157352.04999999981</v>
       </c>
-      <c r="U13" s="1">
-        <f>F13+G13</f>
+      <c r="X13" s="1">
+        <f>G13+H13</f>
         <v>135981.79999999999</v>
       </c>
-      <c r="V13" s="1">
+      <c r="Y13" s="1">
         <v>137265.47</v>
       </c>
-      <c r="W13" s="1">
+      <c r="Z13" s="1">
         <v>37125.879999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:26">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1205,24 +1290,27 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="1">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="1">
         <v>30000</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="3"/>
+      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1230,65 +1318,68 @@
         <v>679640</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
         <v>478841.63</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
         <v>21631</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>1270</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>6023.93</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="4">
-        <f>SUM(D15:I15)</f>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="4">
+        <f>SUM(E15:J15)</f>
         <v>507766.56</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M15" s="1">
         <v>35000</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
         <v>38233.199999999997</v>
       </c>
-      <c r="O15" s="1">
+      <c r="Q15" s="1">
         <v>2966.4</v>
       </c>
-      <c r="P15" s="1">
+      <c r="R15" s="1">
         <v>3066</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="S15" s="1">
         <v>29806.34</v>
       </c>
-      <c r="R15" s="3">
-        <f>SUM(N15:Q15)</f>
+      <c r="T15" s="1"/>
+      <c r="U15" s="3">
+        <f>SUM(P15:S15)</f>
         <v>74071.94</v>
       </c>
-      <c r="S15" s="1">
-        <f>J15-SUM(B15:C15)</f>
+      <c r="V15" s="1">
+        <f>L15-SUM(B15:D15)</f>
         <v>-171873.44</v>
       </c>
-      <c r="T15" s="1">
-        <f>J15-R15-SUM(B15:C15)</f>
+      <c r="W15" s="1">
+        <f>L15-U15-SUM(B15:D15)</f>
         <v>-245945.38</v>
       </c>
-      <c r="U15" s="1">
-        <f>F15+G15</f>
+      <c r="X15" s="1">
+        <f>G15+H15</f>
         <v>22901</v>
       </c>
-      <c r="V15" s="1">
+      <c r="Y15" s="1">
         <v>26263.62</v>
       </c>
-      <c r="W15" s="1">
+      <c r="Z15" s="1">
         <v>47031.21</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:26">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1298,94 +1389,100 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="1">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="1">
         <v>6000</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="3"/>
+      <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="U16" s="3"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>1006182.5</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
         <v>1136520</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>1054042.17</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
         <v>23123.06</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>64211.1</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>3801.4</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>479972.05</v>
       </c>
-      <c r="J17" s="4">
-        <f>SUM(D17:I17)</f>
+      <c r="K17" s="1"/>
+      <c r="L17" s="4">
+        <f>SUM(E17:J17)</f>
         <v>1625149.78</v>
       </c>
-      <c r="K17" s="1">
+      <c r="M17" s="1">
         <v>50000</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1">
         <v>154973</v>
       </c>
-      <c r="O17" s="1">
+      <c r="Q17" s="1">
         <v>2835.94</v>
       </c>
-      <c r="P17" s="1">
+      <c r="R17" s="1">
         <v>2804.78</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="S17" s="1">
         <v>180046.18</v>
       </c>
-      <c r="R17" s="3">
-        <f>SUM(M17:Q17)</f>
+      <c r="T17" s="1"/>
+      <c r="U17" s="3">
+        <f>SUM(O17:S17)</f>
         <v>340659.9</v>
       </c>
-      <c r="S17" s="1">
-        <f>J17-SUM(B17:C17)</f>
+      <c r="V17" s="1">
+        <f>L17-SUM(B17:D17)</f>
         <v>-517552.72</v>
       </c>
-      <c r="T17" s="1">
-        <f>J17-R17-SUM(B17:C17)</f>
+      <c r="W17" s="1">
+        <f>L17-U17-SUM(B17:D17)</f>
         <v>-858212.62000000011</v>
       </c>
-      <c r="U17" s="1">
-        <f>F17+G17</f>
+      <c r="X17" s="1">
+        <f>G17+H17</f>
         <v>87334.16</v>
       </c>
-      <c r="V17" s="1">
+      <c r="Y17" s="1">
         <v>88280.15</v>
       </c>
-      <c r="W17" s="1">
+      <c r="Z17" s="1">
         <v>165276.07</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:26">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1395,94 +1492,100 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="1">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="1">
         <v>8000</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="3"/>
+      <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
+      <c r="U18" s="3"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>3805180</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
         <v>225340</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>4701639.08</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>280504.57</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>179725.5</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>8985</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>4179.3500000000004</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="4">
-        <f>SUM(D19:I19)</f>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="4">
+        <f>SUM(E19:J19)</f>
         <v>5175033.5</v>
       </c>
-      <c r="K19" s="1">
+      <c r="M19" s="1">
         <v>50000</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
         <v>90903.96</v>
       </c>
-      <c r="O19" s="1">
+      <c r="Q19" s="1">
         <v>30520.799999999999</v>
       </c>
-      <c r="P19" s="1">
+      <c r="R19" s="1">
         <v>5080.03</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="S19" s="1">
         <v>307921.33</v>
       </c>
-      <c r="R19" s="3">
-        <f>SUM(M19:Q19)</f>
+      <c r="T19" s="1"/>
+      <c r="U19" s="3">
+        <f>SUM(O19:S19)</f>
         <v>434426.12</v>
       </c>
-      <c r="S19" s="1">
-        <f>J19-SUM(B19:C19)</f>
+      <c r="V19" s="1">
+        <f>L19-SUM(B19:D19)</f>
         <v>1144513.5</v>
       </c>
-      <c r="T19" s="1">
-        <f>J19-R19-SUM(B19:C19)</f>
+      <c r="W19" s="1">
+        <f>L19-U19-SUM(B19:D19)</f>
         <v>710087.37999999989</v>
       </c>
-      <c r="U19" s="1">
-        <f>F19+G19</f>
+      <c r="X19" s="1">
+        <f>G19+H19</f>
         <v>188710.5</v>
       </c>
-      <c r="V19" s="1">
+      <c r="Y19" s="1">
         <v>193359.06</v>
       </c>
-      <c r="W19" s="1">
+      <c r="Z19" s="1">
         <v>136186.39000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:26">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1492,51 +1595,97 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="1">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="1">
         <v>50000</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="3"/>
+      <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
+      <c r="U20" s="3"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4303183.2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2024712.5</v>
+      </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="E21" s="1">
+        <v>3572842.18</v>
+      </c>
+      <c r="F21" s="1">
+        <v>109194</v>
+      </c>
+      <c r="G21" s="1">
+        <v>65528.28</v>
+      </c>
+      <c r="H21" s="1">
+        <v>221197.96</v>
+      </c>
+      <c r="I21" s="1">
+        <v>52338.81</v>
+      </c>
+      <c r="J21" s="1">
+        <v>76958.460000000006</v>
+      </c>
       <c r="K21" s="1">
+        <v>2203317.0499999998</v>
+      </c>
+      <c r="L21" s="4">
+        <f>SUM(E21:K21)</f>
+        <v>6301376.7400000002</v>
+      </c>
+      <c r="M21" s="1">
         <v>169000</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="1">
+        <v>24415.8</v>
+      </c>
+      <c r="P21" s="1">
+        <v>90929.59</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="S21" s="1">
+        <v>186644.2</v>
+      </c>
+      <c r="T21" s="1">
+        <v>779.14</v>
+      </c>
+      <c r="U21" s="3">
+        <f>SUM(O21:T21)</f>
+        <v>302768.73000000004</v>
+      </c>
+      <c r="V21" s="1">
+        <f>L21-SUM(B21:D21)</f>
+        <v>-26518.959999999963</v>
+      </c>
+      <c r="W21" s="1">
+        <f>L21-U21-SUM(B21:D21)</f>
+        <v>-329287.69000000041</v>
+      </c>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1547,12 +1696,12 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
         <v>267800</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="N22" s="6"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -1562,8 +1711,11 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1574,12 +1726,12 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
         <v>3000</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="6"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1589,8 +1741,11 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1601,12 +1756,12 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="6">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="6">
         <v>50000</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -1616,8 +1771,11 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1628,12 +1786,12 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="6">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="6">
         <v>22659</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="6"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -1643,8 +1801,11 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1655,12 +1816,12 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="6">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="6">
         <v>158000</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -1670,8 +1831,11 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1682,12 +1846,12 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="6">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="6">
         <v>50000</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="N27" s="6"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -1697,8 +1861,11 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1709,12 +1876,12 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="6">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="6">
         <v>22659</v>
       </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="N28" s="6"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -1724,8 +1891,11 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1736,12 +1906,12 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="6">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="6">
         <v>158000</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="N29" s="6"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -1751,60 +1921,78 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="12:12">
-      <c r="L33" s="5"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="14:14">
+      <c r="N33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="R3:T3 S5:T5 S7:T7 S9:T9 S11:T11 S13:T13 S15:T15 S17:T17 S19:T19" formulaRange="1"/>
+    <ignoredError sqref="U3:W3 V5:W5 V7:W7 V9:W9 V11:W11 V13:W13 V15:W15 V17:W17 V19:W19" formulaRange="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/财务/账务记录.xlsx
+++ b/财务/账务记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="8月" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>进油记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>一般户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,33 +554,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
-    <col min="13" max="14" width="9" customWidth="1"/>
-    <col min="15" max="16" width="9.5" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" customWidth="1"/>
-    <col min="18" max="21" width="11" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" customWidth="1"/>
-    <col min="23" max="24" width="10.5" customWidth="1"/>
-    <col min="25" max="26" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="14" max="15" width="9" customWidth="1"/>
+    <col min="16" max="17" width="9.5" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" customWidth="1"/>
+    <col min="19" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" customWidth="1"/>
+    <col min="24" max="25" width="10.5" customWidth="1"/>
+    <col min="26" max="27" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -585,102 +589,106 @@
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-      <c r="M1" s="1"/>
+      <c r="M1" s="7"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="7"/>
+      <c r="W1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="1"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="2"/>
       <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -689,75 +697,76 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
         <v>1134271.17</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>90000</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>106679</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>880</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>54662.66</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>13170</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="4">
-        <f>SUM(E3:J3)</f>
+      <c r="L3" s="1"/>
+      <c r="M3" s="4">
+        <f>SUM(F3:K3)</f>
         <v>1399662.8299999998</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>40000</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>29500</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>32177</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>14482.9</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>32177</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>29826.45</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>88270</v>
       </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="3">
-        <f>SUM(O3:S3)</f>
+      <c r="U3" s="1"/>
+      <c r="V3" s="3">
+        <f>SUM(P3:T3)</f>
         <v>196933.34999999998</v>
       </c>
-      <c r="V3" s="1">
-        <f>L3-SUM(B3:D3)</f>
+      <c r="W3" s="1">
+        <f>M3-SUM(B3:E3)</f>
         <v>596590.32999999984</v>
       </c>
-      <c r="W3" s="1">
-        <f>L3-U3-SUM(B3:D3)</f>
+      <c r="X3" s="1">
+        <f>M3-V3-SUM(B3:E3)</f>
         <v>399656.98</v>
       </c>
-      <c r="X3" s="1">
-        <f>G3+H3</f>
+      <c r="Y3" s="1">
+        <f>H3+I3</f>
         <v>107559</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1">
         <v>108422.44</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA3" s="1">
         <v>51435.78</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -769,100 +778,104 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="1">
+      <c r="L4" s="1"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="1">
         <v>40000</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>53881</v>
       </c>
-      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="3"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>3838802.4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>107923</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <v>4034293.33</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>146967</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>254695</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>58683</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>41929.22</v>
       </c>
-      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="4">
-        <f>SUM(E5:J5)</f>
+      <c r="L5" s="1"/>
+      <c r="M5" s="4">
+        <f>SUM(F5:K5)</f>
         <v>4536567.55</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>40000</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <v>3150</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
         <v>10115.200000000001</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>76570</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>464.5</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>4001.76</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="3">
-        <f>SUM(O5:S5)</f>
+      <c r="U5" s="1"/>
+      <c r="V5" s="3">
+        <f>SUM(P5:T5)</f>
         <v>91151.459999999992</v>
       </c>
-      <c r="V5" s="1">
-        <f>L5-SUM(B5:D5)</f>
-        <v>697765.14999999991</v>
-      </c>
       <c r="W5" s="1">
-        <f>L5-U5-SUM(B5:D5)</f>
-        <v>606613.68999999994</v>
+        <f>M5-SUM(B5:E5)</f>
+        <v>589842.14999999991</v>
       </c>
       <c r="X5" s="1">
-        <f>G5+H5</f>
+        <f>M5-V5-SUM(B5:E5)</f>
+        <v>498690.68999999994</v>
+      </c>
+      <c r="Y5" s="1">
+        <f>H5+I5</f>
         <v>313378</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Z5" s="1">
         <v>320435.37</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA5" s="1">
         <v>89131.49</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -874,27 +887,28 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="6">
+      <c r="L6" s="1"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="6">
         <v>200000</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>113700</v>
       </c>
-      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="3"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -903,71 +917,72 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>1512672.06</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>139045</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>128708.69</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>9424</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>1468.53</v>
       </c>
-      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="4">
-        <f>SUM(E7:J7)</f>
+      <c r="L7" s="1"/>
+      <c r="M7" s="4">
+        <f>SUM(F7:K7)</f>
         <v>1791318.28</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>200000</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>33000</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1">
         <v>41373</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>11008.44</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>20336.09</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>14185.33</v>
       </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="3">
-        <f>SUM(O7:S7)</f>
+      <c r="U7" s="1"/>
+      <c r="V7" s="3">
+        <f>SUM(P7:T7)</f>
         <v>86902.86</v>
       </c>
-      <c r="V7" s="1">
-        <f>L7-SUM(B7:D7)</f>
+      <c r="W7" s="1">
+        <f>M7-SUM(B7:E7)</f>
         <v>217989.28000000003</v>
       </c>
-      <c r="W7" s="1">
-        <f>L7-U7-SUM(B7:D7)</f>
+      <c r="X7" s="1">
+        <f>M7-V7-SUM(B7:E7)</f>
         <v>131086.41999999993</v>
       </c>
-      <c r="X7" s="1">
-        <f>G7+H7</f>
+      <c r="Y7" s="1">
+        <f>H7+I7</f>
         <v>138132.69</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1">
         <v>142254.93</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AA7" s="1">
         <v>56131.199999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -979,100 +994,104 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="6">
+      <c r="L8" s="1"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="6">
         <v>200000</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="6">
         <v>4000</v>
       </c>
-      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="3"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>1925309.6</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>381992</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>2223827.4700000002</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>481480</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>90007.360000000001</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>4447</v>
       </c>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="4">
-        <f>SUM(E9:J9)</f>
+      <c r="L9" s="1"/>
+      <c r="M9" s="4">
+        <f>SUM(F9:K9)</f>
         <v>2799761.83</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>110000</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="6">
         <v>5000</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>11071.79</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>97925</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>4829.2700000000004</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>939.8</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>29735.33</v>
       </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="3">
-        <f>SUM(O9:S9)</f>
+      <c r="U9" s="1"/>
+      <c r="V9" s="3">
+        <f>SUM(P9:T9)</f>
         <v>144501.19</v>
       </c>
-      <c r="V9" s="1">
-        <f>L9-SUM(B9:D9)</f>
-        <v>874452.23</v>
-      </c>
       <c r="W9" s="1">
-        <f>L9-U9-SUM(B9:D9)</f>
-        <v>729951.04</v>
+        <f>M9-SUM(B9:E9)</f>
+        <v>492460.23</v>
       </c>
       <c r="X9" s="1">
-        <f>G9+H9</f>
+        <f>M9-V9-SUM(B9:E9)</f>
+        <v>347959.04000000004</v>
+      </c>
+      <c r="Y9" s="1">
+        <f>H9+I9</f>
         <v>94454.36</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>94697.36</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>110968.84</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1084,100 +1103,104 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="1">
+      <c r="L10" s="1"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="1">
         <v>50000</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="6">
         <v>2000</v>
       </c>
-      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="3"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>2455070</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>88591</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <v>2313913.63</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>88570.3</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>74658.3</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>7350</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>7570.31</v>
       </c>
-      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="4">
-        <f>SUM(E11:J11)</f>
+      <c r="L11" s="1"/>
+      <c r="M11" s="4">
+        <f>SUM(F11:K11)</f>
         <v>2492062.5399999996</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>50000</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>1000</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1">
         <v>17070.900000000001</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>4124.3</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>169.79</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>29344.639999999999</v>
       </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="3">
-        <f>SUM(O11:S11)</f>
+      <c r="U11" s="1"/>
+      <c r="V11" s="3">
+        <f>SUM(P11:T11)</f>
         <v>50709.630000000005</v>
       </c>
-      <c r="V11" s="1">
-        <f>L11-SUM(B11:D11)</f>
-        <v>36992.539999999572</v>
-      </c>
       <c r="W11" s="1">
-        <f>L11-U11-SUM(B11:D11)</f>
-        <v>-13717.090000000317</v>
+        <f>M11-SUM(B11:E11)</f>
+        <v>-51598.460000000428</v>
       </c>
       <c r="X11" s="1">
-        <f>G11+H11</f>
+        <f>M11-V11-SUM(B11:E11)</f>
+        <v>-102308.09000000032</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>H11+I11</f>
         <v>82008.3</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
         <v>82384.3</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AA11" s="1">
         <v>24211.78</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1189,27 +1212,28 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="1">
+      <c r="L12" s="1"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="1">
         <v>130000</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="6">
         <v>15000</v>
       </c>
-      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="3"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1218,69 +1242,70 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
         <v>2441924.38</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
         <v>117993.8</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>17988</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>1159.58</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>50000</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="4">
-        <f>SUM(E13:J13)</f>
+      <c r="L13" s="1"/>
+      <c r="M13" s="4">
+        <f>SUM(F13:K13)</f>
         <v>2629065.7599999998</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>50000</v>
       </c>
-      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1">
         <v>26546.5</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>5210.37</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>296.51</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>29755.33</v>
       </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="3">
-        <f>SUM(O13:S13)</f>
+      <c r="U13" s="1"/>
+      <c r="V13" s="3">
+        <f>SUM(P13:T13)</f>
         <v>61808.71</v>
       </c>
-      <c r="V13" s="1">
-        <f>L13-SUM(B13:D13)</f>
+      <c r="W13" s="1">
+        <f>M13-SUM(B13:E13)</f>
         <v>219160.75999999978</v>
       </c>
-      <c r="W13" s="1">
-        <f>L13-U13-SUM(B13:D13)</f>
+      <c r="X13" s="1">
+        <f>M13-V13-SUM(B13:E13)</f>
         <v>157352.04999999981</v>
       </c>
-      <c r="X13" s="1">
-        <f>G13+H13</f>
+      <c r="Y13" s="1">
+        <f>H13+I13</f>
         <v>135981.79999999999</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <v>137265.47</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA13" s="1">
         <v>37125.879999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1292,25 +1317,26 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="1">
+      <c r="L14" s="1"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="1">
         <v>30000</v>
       </c>
-      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="3"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1319,67 +1345,68 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
         <v>478841.63</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
         <v>21631</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>1270</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>6023.93</v>
       </c>
-      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="4">
-        <f>SUM(E15:J15)</f>
+      <c r="L15" s="1"/>
+      <c r="M15" s="4">
+        <f>SUM(F15:K15)</f>
         <v>507766.56</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>35000</v>
       </c>
-      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1">
         <v>38233.199999999997</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>2966.4</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <v>3066</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>29806.34</v>
       </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="3">
-        <f>SUM(P15:S15)</f>
+      <c r="U15" s="1"/>
+      <c r="V15" s="3">
+        <f>SUM(Q15:T15)</f>
         <v>74071.94</v>
       </c>
-      <c r="V15" s="1">
-        <f>L15-SUM(B15:D15)</f>
+      <c r="W15" s="1">
+        <f>M15-SUM(B15:E15)</f>
         <v>-171873.44</v>
       </c>
-      <c r="W15" s="1">
-        <f>L15-U15-SUM(B15:D15)</f>
+      <c r="X15" s="1">
+        <f>M15-V15-SUM(B15:E15)</f>
         <v>-245945.38</v>
       </c>
-      <c r="X15" s="1">
-        <f>G15+H15</f>
+      <c r="Y15" s="1">
+        <f>H15+I15</f>
         <v>22901</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1">
         <v>26263.62</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AA15" s="1">
         <v>47031.21</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1391,25 +1418,26 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="1">
+      <c r="L16" s="1"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="1">
         <v>6000</v>
       </c>
-      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="3"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1417,72 +1445,73 @@
         <v>1006182.5</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
         <v>1136520</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>1054042.17</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
         <v>23123.06</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>64211.1</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>3801.4</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>479972.05</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="4">
-        <f>SUM(E17:J17)</f>
+      <c r="L17" s="1"/>
+      <c r="M17" s="4">
+        <f>SUM(F17:K17)</f>
         <v>1625149.78</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>50000</v>
       </c>
-      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1">
         <v>154973</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>2835.94</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>2804.78</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>180046.18</v>
       </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="3">
-        <f>SUM(O17:S17)</f>
+      <c r="U17" s="1"/>
+      <c r="V17" s="3">
+        <f>SUM(P17:T17)</f>
         <v>340659.9</v>
       </c>
-      <c r="V17" s="1">
-        <f>L17-SUM(B17:D17)</f>
+      <c r="W17" s="1">
+        <f>M17-SUM(B17:E17)</f>
         <v>-517552.72</v>
       </c>
-      <c r="W17" s="1">
-        <f>L17-U17-SUM(B17:D17)</f>
+      <c r="X17" s="1">
+        <f>M17-V17-SUM(B17:E17)</f>
         <v>-858212.62000000011</v>
       </c>
-      <c r="X17" s="1">
-        <f>G17+H17</f>
+      <c r="Y17" s="1">
+        <f>H17+I17</f>
         <v>87334.16</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
         <v>88280.15</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AA17" s="1">
         <v>165276.07</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:27">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1494,98 +1523,102 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="1">
+      <c r="L18" s="1"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="1">
         <v>8000</v>
       </c>
-      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="3"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>3805180</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1">
+      <c r="C19" s="1">
+        <v>396572</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
         <v>225340</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>4701639.08</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>280504.57</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>179725.5</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>8985</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>4179.3500000000004</v>
       </c>
-      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="4">
-        <f>SUM(E19:J19)</f>
+      <c r="L19" s="1"/>
+      <c r="M19" s="4">
+        <f>SUM(F19:K19)</f>
         <v>5175033.5</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>50000</v>
       </c>
-      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1">
         <v>90903.96</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>30520.799999999999</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>5080.03</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <v>307921.33</v>
       </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="3">
-        <f>SUM(O19:S19)</f>
+      <c r="U19" s="1"/>
+      <c r="V19" s="3">
+        <f>SUM(P19:T19)</f>
         <v>434426.12</v>
       </c>
-      <c r="V19" s="1">
-        <f>L19-SUM(B19:D19)</f>
-        <v>1144513.5</v>
-      </c>
       <c r="W19" s="1">
-        <f>L19-U19-SUM(B19:D19)</f>
-        <v>710087.37999999989</v>
+        <f>M19-SUM(B19:E19)</f>
+        <v>747941.5</v>
       </c>
       <c r="X19" s="1">
-        <f>G19+H19</f>
+        <f>M19-V19-SUM(B19:E19)</f>
+        <v>313515.37999999989</v>
+      </c>
+      <c r="Y19" s="1">
+        <f>H19+I19</f>
         <v>188710.5</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1">
         <v>193359.06</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AA19" s="1">
         <v>136186.39000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:27">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1597,25 +1630,26 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="1">
+      <c r="L20" s="1"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="1">
         <v>50000</v>
       </c>
-      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="3"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,69 +1657,72 @@
         <v>4303183.2</v>
       </c>
       <c r="C21" s="1">
+        <v>66994</v>
+      </c>
+      <c r="D21" s="1">
         <v>2024712.5</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
         <v>3572842.18</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>109194</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>65528.28</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>221197.96</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>52338.81</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>76958.460000000006</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>2203317.0499999998</v>
       </c>
-      <c r="L21" s="4">
-        <f>SUM(E21:K21)</f>
+      <c r="M21" s="4">
+        <f>SUM(F21:L21)</f>
         <v>6301376.7400000002</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>169000</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="1">
+      <c r="O21" s="6"/>
+      <c r="P21" s="1">
         <v>24415.8</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>90929.59</v>
       </c>
-      <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1">
+      <c r="S21" s="1"/>
+      <c r="T21" s="1">
         <v>186644.2</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <v>779.14</v>
       </c>
-      <c r="U21" s="3">
-        <f>SUM(O21:T21)</f>
+      <c r="V21" s="3">
+        <f>SUM(P21:U21)</f>
         <v>302768.73000000004</v>
       </c>
-      <c r="V21" s="1">
-        <f>L21-SUM(B21:D21)</f>
-        <v>-26518.959999999963</v>
-      </c>
       <c r="W21" s="1">
-        <f>L21-U21-SUM(B21:D21)</f>
-        <v>-329287.69000000041</v>
-      </c>
-      <c r="X21" s="1"/>
+        <f>M21-SUM(B21:E21)</f>
+        <v>-93512.959999999963</v>
+      </c>
+      <c r="X21" s="1">
+        <f>M21-V21-SUM(B21:E21)</f>
+        <v>-396281.69000000041</v>
+      </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1698,11 +1735,11 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1">
         <v>267800</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="1"/>
+      <c r="O22" s="6"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1714,8 +1751,9 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1728,11 +1766,11 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1">
         <v>3000</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="1"/>
+      <c r="O23" s="6"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1744,8 +1782,9 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1758,11 +1797,11 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="6">
+      <c r="M24" s="1"/>
+      <c r="N24" s="6">
         <v>50000</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="6"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1774,8 +1813,9 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1788,11 +1828,11 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="6">
+      <c r="M25" s="1"/>
+      <c r="N25" s="6">
         <v>22659</v>
       </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="1"/>
+      <c r="O25" s="6"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -1804,8 +1844,9 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1818,11 +1859,11 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="6">
+      <c r="M26" s="1"/>
+      <c r="N26" s="6">
         <v>158000</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="1"/>
+      <c r="O26" s="6"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -1834,8 +1875,9 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1848,11 +1890,11 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="6">
+      <c r="M27" s="1"/>
+      <c r="N27" s="6">
         <v>50000</v>
       </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="1"/>
+      <c r="O27" s="6"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -1864,8 +1906,9 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1878,11 +1921,11 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="6">
+      <c r="M28" s="1"/>
+      <c r="N28" s="6">
         <v>22659</v>
       </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="1"/>
+      <c r="O28" s="6"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -1894,8 +1937,9 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1908,11 +1952,11 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="6">
+      <c r="M29" s="1"/>
+      <c r="N29" s="6">
         <v>158000</v>
       </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="1"/>
+      <c r="O29" s="6"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -1924,34 +1968,35 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="14:14">
-      <c r="N33" s="5"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="15:15">
+      <c r="O33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="U3:W3 V5:W5 V7:W7 V9:W9 V11:W11 V13:W13 V15:W15 V17:W17 V19:W19" formulaRange="1"/>
+    <ignoredError sqref="V3:X3 W5:X5 W7:X7 W9:X9 W11:X11 W13:X13 W15:X15 W17:X17 W19:X19" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
